--- a/data/trans_dic/P54_A_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +638,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +653,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>95,72%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,65; 45,07</t>
+          <t>36,28; 44,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,94; 92,74</t>
+          <t>87,38; 92,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,51</t>
+          <t>91,7; 96,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,36; 46,39</t>
+          <t>39,01; 46,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,77; 94,5</t>
+          <t>89,58; 94,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,02; 97,58</t>
+          <t>95,04; 97,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,22; 44,71</t>
+          <t>39,11; 44,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,72; 93,04</t>
+          <t>89,4; 92,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,35; 96,83</t>
+          <t>93,98; 96,84</t>
         </is>
       </c>
     </row>
@@ -742,17 +743,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,27 +763,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,17%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,22; 40,49</t>
+          <t>31,32; 40,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,87; 92,64</t>
+          <t>84,18; 92,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,22; 93,45</t>
+          <t>86,3; 93,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,06; 41,52</t>
+          <t>33,16; 41,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,78</t>
+          <t>90,15; 95,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,26; 97,36</t>
+          <t>92,82; 97,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 39,86</t>
+          <t>33,76; 39,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,51; 93,63</t>
+          <t>87,81; 93,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,5; 94,79</t>
+          <t>90,46; 94,78</t>
         </is>
       </c>
     </row>
@@ -852,17 +853,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,12 +873,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -887,12 +888,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,35%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,57; 42,75</t>
+          <t>23,97; 41,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,65; 97,16</t>
+          <t>71,18; 96,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,48; 98,12</t>
+          <t>91,08; 98,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 44,28</t>
+          <t>29,14; 45,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,58; 98,01</t>
+          <t>88,5; 97,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,83; 98,13</t>
+          <t>90,04; 97,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,51; 41,01</t>
+          <t>29,49; 40,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,4; 96,76</t>
+          <t>80,24; 96,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,68; 97,39</t>
+          <t>92,27; 97,3</t>
         </is>
       </c>
     </row>
@@ -967,12 +968,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,27 +983,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 41,18</t>
+          <t>35,08; 41,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,32; 92,31</t>
+          <t>86,84; 91,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,11; 94,9</t>
+          <t>90,91; 94,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,33; 42,48</t>
+          <t>37,49; 42,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,33; 94,57</t>
+          <t>91,13; 94,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,52; 97,1</t>
+          <t>94,93; 97,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,13; 41,13</t>
+          <t>37,03; 40,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,12; 93,01</t>
+          <t>89,45; 92,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,52; 95,63</t>
+          <t>93,47; 95,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>646.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>802.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1448.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>627567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1477217</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1549353</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>651663</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1644125</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1740530</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1279230</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3121342</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3289882</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>555100; 688228</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1431225; 1517933</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1499919; 1577460</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>595529; 705494</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1600194; 1681215</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1711717; 1759726</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1195251; 1369234</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3061105; 3177181</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3230042; 3328086</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>462668</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1199606</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1240433</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>450297</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1278479</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1304013</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>912965</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2478085</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2544446</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>402909; 525363</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1132497; 1249971</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1182288; 1277901</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>400969; 502786</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1234659; 1306452</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1263221; 1326417</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>842409; 993129</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2383952; 2531977</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2470323; 2588307</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>117363</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>379612</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>394916</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128935</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>374651</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>376244</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>246298</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>754263</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>771159</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>86664; 149569</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>300943; 409214</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>376685; 406103</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100909; 157772</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>351223; 387927</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>355859; 387149</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>208767; 289441</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>657696; 787836</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>746251; 786982</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1042.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1261.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1242.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1575.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1053.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2284.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2836.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1207598</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3056435</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3184702</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1230894</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3297255</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3420785</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2438492</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6353690</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6605488</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1114944; 1305428</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2957821; 3127223</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3108509; 3231332</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1155321; 1322663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3237880; 3350642</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3376725; 3456276</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2317740; 2565775</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6225016; 6443883</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6520670; 6667545</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>